--- a/studygo/day04/程序生成的/语音测试.xlsx
+++ b/studygo/day04/程序生成的/语音测试.xlsx
@@ -348,21 +348,19 @@
       <c r="A2" t="str">
         <v>语音测试-开麦/闭麦</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;房主在语音房内开麦,用户A上麦并开麦，用户B未上麦&lt;/p&gt;</v>
+        <v>房主在语音房内开麦,用户A上麦并开麦，用户B未上麦</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-房主说话，A和B听声音&lt;/p&gt;</v>
+        <v>
+房主说话，A和B听声音</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;可以听到声音，声音清晰无卡顿、回声等异常&lt;/p&gt;</v>
+        <v>可以听到声音，声音清晰无卡顿、回声等异常</v>
       </c>
     </row>
     <row r="3">
@@ -370,10 +368,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;A说话，房主和B听声音&lt;/p&gt;</v>
+        <v>A说话，房主和B听声音</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;可以听到声音，声音清晰无卡顿、回声等异常&lt;/p&gt;</v>
+        <v>可以听到声音，声音清晰无卡顿、回声等异常</v>
       </c>
     </row>
     <row r="4">
@@ -381,10 +379,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;B说话，房主和A听声音&lt;/p&gt;</v>
+        <v>B说话，房主和A听声音</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;听不到声音（B没有上麦）&lt;/p&gt;</v>
+        <v>听不到声音（B没有上麦）</v>
       </c>
     </row>
     <row r="5">
@@ -392,10 +390,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;A关闭麦克风，A说话，房主和B听声音&lt;/p&gt;</v>
+        <v>A关闭麦克风，A说话，房主和B听声音</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;听不到声音（A没有开麦，无法收录声音）&lt;/p&gt;</v>
+        <v>听不到声音（A没有开麦，无法收录声音）</v>
       </c>
     </row>
     <row r="6">
@@ -403,10 +401,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;房主关闭麦克风，房主说话，AB听声音&lt;/p&gt;</v>
+        <v>房主关闭麦克风，房主说话，AB听声音</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;听不到声音（房主没有开麦）&lt;/p&gt;</v>
+        <v>听不到声音（房主没有开麦）</v>
       </c>
     </row>
     <row r="7"/>
@@ -414,20 +412,18 @@
       <c r="A8" t="str">
         <v>语音测试-音量调节</v>
       </c>
-      <c r="B8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B8" t="str"/>
       <c r="C8" t="str">
-        <v>&lt;p&gt;房主在语音房内开麦,用户A上麦并开麦，用户B未上麦&lt;/p&gt;</v>
+        <v>房主在语音房内开麦,用户A上麦并开麦，用户B未上麦</v>
       </c>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;房主说话，AB听声音的过程中调整手机音量键&lt;/p&gt;</v>
+        <v>房主说话，AB听声音的过程中调整手机音量键</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;根据调节音量进度，听到声音音量变化明显，音量调节到0时听不到声音&lt;/p&gt;</v>
+        <v>根据调节音量进度，听到声音音量变化明显，音量调节到0时听不到声音</v>
       </c>
     </row>
     <row r="9">
@@ -435,10 +431,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;A说话，房主和B听声音的过程中调整手机音量键&lt;/p&gt;</v>
+        <v>A说话，房主和B听声音的过程中调整手机音量键</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;根据调节音量进度，听到声音音量变化明显，音量调节到0时听不到声音&lt;/p&gt;</v>
+        <v>根据调节音量进度，听到声音音量变化明显，音量调节到0时听不到声音</v>
       </c>
     </row>
     <row r="10"/>
@@ -446,20 +442,16 @@
       <c r="A11" t="str">
         <v>语音测试-耳机/蓝牙二级</v>
       </c>
-      <c r="B11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B11" t="str"/>
+      <c r="C11" t="str"/>
       <c r="D11" t="str">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;语音房有人麦上说话，带耳机听声音&lt;/p&gt;</v>
+        <v>语音房有人麦上说话，带耳机听声音</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;声音不外放，通过耳机听到声音&lt;/p&gt;</v>
+        <v>声音不外放，通过耳机听到声音</v>
       </c>
     </row>
     <row r="12">
@@ -467,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;语音房有人麦上说话，带蓝牙耳机听声音&lt;/p&gt;</v>
+        <v>语音房有人麦上说话，带蓝牙耳机听声音</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;声音不外放，通过蓝牙耳机听到声音&lt;/p&gt;</v>
+        <v>声音不外放，通过蓝牙耳机听到声音</v>
       </c>
     </row>
     <row r="13"/>
@@ -478,21 +470,19 @@
       <c r="A14" t="str">
         <v>语音测试-退后台</v>
       </c>
-      <c r="B14" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B14" t="str"/>
       <c r="C14" t="str">
-        <v>&lt;p&gt;房主在语音房内开麦,用户A上麦并开麦，用户B未上麦&lt;/p&gt;</v>
+        <v>房主在语音房内开麦,用户A上麦并开麦，用户B未上麦</v>
       </c>
       <c r="D14" t="str">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;
-房主说话，A和B退后台听声音&lt;/p&gt;</v>
+        <v>
+房主说话，A和B退后台听声音</v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;可以听到声音，声音清晰无卡顿、回声等异常&lt;/p&gt;</v>
+        <v>可以听到声音，声音清晰无卡顿、回声等异常</v>
       </c>
     </row>
     <row r="15">
@@ -500,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;A说话，房主和B退后台听声音&lt;/p&gt;</v>
+        <v>A说话，房主和B退后台听声音</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;可以听到声音，声音清晰无卡顿、回声等异常&lt;/p&gt;</v>
+        <v>可以听到声音，声音清晰无卡顿、回声等异常</v>
       </c>
     </row>
     <row r="16"/>
@@ -511,20 +501,18 @@
       <c r="A17" t="str">
         <v>语音测试-来电/接听</v>
       </c>
-      <c r="B17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B17" t="str"/>
       <c r="C17" t="str">
-        <v>&lt;p&gt;房主在语音房内开麦,用户A上麦并开麦，用户B未上麦&lt;/p&gt;</v>
+        <v>房主在语音房内开麦,用户A上麦并开麦，用户B未上麦</v>
       </c>
       <c r="D17" t="str">
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;房主开麦说话过程中收到来电提醒&lt;/p&gt;</v>
+        <v>房主开麦说话过程中收到来电提醒</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;AB听不到来电的声音&lt;/p&gt;</v>
+        <v>AB听不到来电的声音</v>
       </c>
     </row>
     <row r="18">
@@ -532,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;房主接通电话，通话过程中，AB听声音&lt;/p&gt;</v>
+        <v>房主接通电话，通话过程中，AB听声音</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;AB听不到房主接听电话的声音&lt;/p&gt;</v>
+        <v>AB听不到房主接听电话的声音</v>
       </c>
     </row>
     <row r="19">
@@ -543,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;房主挂电话后继续回到房间内，跟用户A说话&lt;/p&gt;</v>
+        <v>房主挂电话后继续回到房间内，跟用户A说话</v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;语音功能回复正常&lt;/p&gt;</v>
+        <v>语音功能回复正常</v>
       </c>
     </row>
     <row r="20"/>
@@ -554,20 +542,16 @@
       <c r="A21" t="str">
         <v>语音测试-多人语音</v>
       </c>
-      <c r="B21" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C21" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B21" t="str"/>
+      <c r="C21" t="str"/>
       <c r="D21" t="str">
         <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;房主和3位麦上用户在房间语音通过&lt;/p&gt;</v>
+        <v>房主和3位麦上用户在房间语音通过</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;多人语音功能正常，声音清晰无卡顿、回声等异常&lt;/p&gt;</v>
+        <v>多人语音功能正常，声音清晰无卡顿、回声等异常</v>
       </c>
     </row>
     <row r="22">
@@ -575,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;期间有用户上麦、下麦&lt;/p&gt;</v>
+        <v>期间有用户上麦、下麦</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;上麦下麦操作不影响语音房内用户连麦&lt;/p&gt;</v>
+        <v>上麦下麦操作不影响语音房内用户连麦</v>
       </c>
     </row>
     <row r="23">
@@ -586,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;期间有用户进出语音房&lt;/p&gt;</v>
+        <v>期间有用户进出语音房</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;进出语音房不影响语音房内用户连麦&lt;/p&gt;</v>
+        <v>进出语音房不影响语音房内用户连麦</v>
       </c>
     </row>
   </sheetData>
